--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2070577.205950254</v>
+        <v>-2073160.238019983</v>
       </c>
     </row>
     <row r="7">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>62.92930610001552</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>231.242759751734</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>29.37992230134289</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>132.7694272888377</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>271.775411412472</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>59.51022578047542</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.5306087853129</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,13 +1108,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>129.7755593606337</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.9144617143652</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>258.1603528788153</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>86.14257700143663</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>220.2858449881296</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>63.16281301712306</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756274</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>121.0056618329838</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>92.20984583428708</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>245.8796921214423</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.14614278817939</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673014</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179031</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149753</v>
+        <v>171.0385136149754</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316658</v>
+        <v>158.453354531666</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>44.76793778823321</v>
+        <v>117.2403075398348</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253068</v>
+        <v>156.730671725307</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792619</v>
+        <v>131.501246279262</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160354</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315969</v>
+        <v>57.5817801431598</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346826</v>
+        <v>172.2328194346827</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603263</v>
+        <v>208.6119837603264</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222821</v>
+        <v>277.3910078222822</v>
       </c>
       <c r="V28" t="n">
-        <v>243.344176756866</v>
+        <v>243.3441767568661</v>
       </c>
       <c r="W28" t="n">
-        <v>277.729531769629</v>
+        <v>277.7295317696291</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220752</v>
+        <v>216.9161888220753</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851328</v>
+        <v>209.7911867851329</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308902</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3190,22 +3190,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1501.213961756485</v>
+        <v>1664.678443125552</v>
       </c>
       <c r="C2" t="n">
-        <v>1501.213961756485</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="D2" t="n">
-        <v>1142.948263149734</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>757.1600105514904</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>757.1600105514901</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>342.0875603964866</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218357</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796418</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796418</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>1887.813801820606</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080122</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986296</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.434506214537</v>
+        <v>2788.080208733469</v>
       </c>
       <c r="C4" t="n">
-        <v>507.434506214537</v>
+        <v>2619.144025805562</v>
       </c>
       <c r="D4" t="n">
-        <v>507.434506214537</v>
+        <v>2619.144025805562</v>
       </c>
       <c r="E4" t="n">
-        <v>507.434506214537</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068854</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P4" t="n">
-        <v>907.966238459644</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181847</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181847</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>729.201121645011</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T4" t="n">
-        <v>507.434506214537</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="U4" t="n">
-        <v>507.434506214537</v>
+        <v>2969.728673563709</v>
       </c>
       <c r="V4" t="n">
-        <v>507.434506214537</v>
+        <v>2969.728673563709</v>
       </c>
       <c r="W4" t="n">
-        <v>507.434506214537</v>
+        <v>2969.728673563709</v>
       </c>
       <c r="X4" t="n">
-        <v>507.434506214537</v>
+        <v>2969.728673563709</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.434506214537</v>
+        <v>2969.728673563709</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.035106955553</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C5" t="n">
-        <v>1496.072590015141</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D5" t="n">
-        <v>1137.806891408391</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>752.0186388101465</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>341.032734020539</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X5" t="n">
-        <v>2641.774278995486</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.634947019675</v>
+        <v>1969.461176090932</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>922.6774975139006</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484846</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484846</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.157560278959</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1259.157560278959</v>
+        <v>749.1378125655299</v>
       </c>
       <c r="X7" t="n">
-        <v>1259.157560278959</v>
+        <v>749.1378125655299</v>
       </c>
       <c r="Y7" t="n">
-        <v>1038.364981135429</v>
+        <v>528.3452334219998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>994.1614947556907</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>635.8957961489402</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>635.8957961489402</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
         <v>66.51211643218343</v>
@@ -4802,22 +4802,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066532</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X8" t="n">
-        <v>2257.256030805452</v>
+        <v>2139.863183736036</v>
       </c>
       <c r="Y8" t="n">
-        <v>1867.11669882964</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="9">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>934.4107598040977</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C10" t="n">
-        <v>765.4745768761908</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D10" t="n">
-        <v>615.357937463855</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>467.4448438814619</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>467.4448438814619</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>299.7420072561808</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>153.5248204740386</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4993,19 +4993,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1704.783593555029</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1450.099105349142</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1160.681935312181</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>932.6923844141637</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>711.8998052706336</v>
       </c>
     </row>
     <row r="11">
@@ -5033,43 +5033,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703073</v>
+        <v>983.3556038098274</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703073</v>
+        <v>814.4194208819205</v>
       </c>
       <c r="D13" t="n">
-        <v>695.5020655703073</v>
+        <v>664.3027814695847</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>516.3896878871916</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892812</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>202.3036411041612</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782996</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038308</v>
+        <v>435.7419440038383</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797711</v>
+        <v>826.1405381797784</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487564</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510505</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854702</v>
+        <v>2157.887856924462</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648815</v>
+        <v>1903.203368718575</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611855</v>
+        <v>1613.786198681614</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138374</v>
+        <v>1385.796647783597</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703073</v>
+        <v>1165.004068640067</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075819</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5309,16 +5309,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,19 +5355,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190824</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836018</v>
+        <v>929.7309773356196</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>929.7309773356196</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232839</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
@@ -5437,7 +5437,7 @@
         <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797746</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138415</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,19 +5501,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5531,22 +5531,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400713</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121644</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121644</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121644</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121644</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138413</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703111</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>150.8995423128888</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>484.8243144841094</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188009</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5908,40 +5908,40 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V22" t="n">
         <v>1491.508541327549</v>
@@ -5950,10 +5950,10 @@
         <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925707</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490406</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,13 +6063,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6148,19 +6148,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138412</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,28 +6245,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>663.4384611046096</v>
+        <v>663.438461104608</v>
       </c>
       <c r="C28" t="n">
-        <v>503.3845676382804</v>
+        <v>503.3845676382787</v>
       </c>
       <c r="D28" t="n">
-        <v>503.3845676382804</v>
+        <v>503.3845676382787</v>
       </c>
       <c r="E28" t="n">
-        <v>503.3845676382804</v>
+        <v>503.3845676382787</v>
       </c>
       <c r="F28" t="n">
-        <v>458.1644284582469</v>
+        <v>384.9600145677385</v>
       </c>
       <c r="G28" t="n">
-        <v>299.8506186347046</v>
+        <v>226.6462047441961</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0210769384805</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795881</v>
+        <v>182.7582133795879</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064191</v>
+        <v>453.1530078064186</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836515</v>
+        <v>852.257133883651</v>
       </c>
       <c r="M28" t="n">
         <v>1282.972368515978</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077279</v>
+        <v>1709.087772077278</v>
       </c>
       <c r="O28" t="n">
         <v>2087.322584687556</v>
@@ -6412,22 +6412,22 @@
         <v>2284.471379621061</v>
       </c>
       <c r="T28" t="n">
-        <v>2073.75220410558</v>
+        <v>2073.752204105579</v>
       </c>
       <c r="U28" t="n">
-        <v>1793.559266911356</v>
+        <v>1793.559266911354</v>
       </c>
       <c r="V28" t="n">
-        <v>1547.757068167047</v>
+        <v>1547.757068167045</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.222187591664</v>
+        <v>1267.222187591662</v>
       </c>
       <c r="X28" t="n">
-        <v>1048.114926155224</v>
+        <v>1048.114926155223</v>
       </c>
       <c r="Y28" t="n">
-        <v>836.2046364732715</v>
+        <v>836.2046364732701</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319312</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656806</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150011</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942642</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,28 +6643,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,7 +6859,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7132,10 +7132,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,22 +7330,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
         <v>2496.057455973196</v>
@@ -7357,25 +7357,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319314</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656807</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150012</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942643</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580102</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7603,16 +7603,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,19 +7837,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-3.84283301942238e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>291.7537355206674</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>63.36500463558642</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>116.0411257215884</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,13 +22753,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>153.4424109167751</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>83.27114962944611</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>32.89260457059648</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>46.24115926564406</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>194.3131525023039</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>40.30478226780186</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219423</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194271</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.2291039219423</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194265</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512504</v>
+        <v>139.8220064512505</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796072</v>
+        <v>137.6404960796073</v>
       </c>
       <c r="F28" t="n">
-        <v>91.85964366773604</v>
+        <v>19.38727391613453</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.47236975160365</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1085835.225316874</v>
+        <v>1085835.225316873</v>
       </c>
     </row>
     <row r="3">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65808.19547374986</v>
+        <v>65808.19547374985</v>
       </c>
       <c r="C2" t="n">
+        <v>82104.17698642834</v>
+      </c>
+      <c r="D2" t="n">
         <v>82104.17698642836</v>
       </c>
-      <c r="D2" t="n">
-        <v>82104.17698642834</v>
-      </c>
       <c r="E2" t="n">
+        <v>80714.65996900064</v>
+      </c>
+      <c r="F2" t="n">
         <v>80714.6599690006</v>
       </c>
-      <c r="F2" t="n">
-        <v>80714.65996900061</v>
-      </c>
       <c r="G2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900057</v>
       </c>
       <c r="J2" t="n">
         <v>81217.80383555165</v>
@@ -26341,19 +26341,19 @@
         <v>82104.17698642834</v>
       </c>
       <c r="L2" t="n">
+        <v>82104.1769864284</v>
+      </c>
+      <c r="M2" t="n">
         <v>82104.17698642833</v>
       </c>
-      <c r="M2" t="n">
-        <v>82104.17698642839</v>
-      </c>
       <c r="N2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642836</v>
       </c>
     </row>
     <row r="3">
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.9756508471</v>
+        <v>224565.9756508469</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006216</v>
+        <v>12392.94474006228</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569579</v>
+        <v>7034.773253569494</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006219</v>
+        <v>12392.94474006232</v>
       </c>
     </row>
     <row r="4">
@@ -26418,40 +26418,40 @@
         <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820628</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
         <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.752076855</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685501</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685503</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685502</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>17110.24080442847</v>
+        <v>17110.24080442849</v>
       </c>
       <c r="K4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994855</v>
       </c>
       <c r="L4" t="n">
         <v>22207.61133994853</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.61133994852</v>
+        <v>22207.61133994855</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994855</v>
+        <v>22207.61133994851</v>
       </c>
       <c r="O4" t="n">
         <v>22207.61133994851</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1371455.137804242</v>
+        <v>-1371862.537342059</v>
       </c>
       <c r="C6" t="n">
-        <v>-119233.5504231712</v>
+        <v>-119233.5504231713</v>
       </c>
       <c r="D6" t="n">
         <v>-119233.5504231713</v>
       </c>
       <c r="E6" t="n">
-        <v>-360037.0837391168</v>
+        <v>-360071.8216645526</v>
       </c>
       <c r="F6" t="n">
-        <v>-34624.62193176153</v>
+        <v>-34659.35985719724</v>
       </c>
       <c r="G6" t="n">
-        <v>-34624.62193176155</v>
+        <v>-34659.35985719728</v>
       </c>
       <c r="H6" t="n">
-        <v>-34624.62193176153</v>
+        <v>-34659.35985719727</v>
       </c>
       <c r="I6" t="n">
-        <v>-34624.62193176155</v>
+        <v>-34659.3598571973</v>
       </c>
       <c r="J6" t="n">
-        <v>-262320.200384449</v>
+        <v>-262342.3597132207</v>
       </c>
       <c r="K6" t="n">
-        <v>-55660.49494749775</v>
+        <v>-55660.49494749788</v>
       </c>
       <c r="L6" t="n">
-        <v>-43267.5502074356</v>
+        <v>-43267.55020743552</v>
       </c>
       <c r="M6" t="n">
-        <v>-128322.5781429473</v>
+        <v>-128322.5781429475</v>
       </c>
       <c r="N6" t="n">
-        <v>-43267.5502074356</v>
+        <v>-43267.55020743552</v>
       </c>
       <c r="O6" t="n">
-        <v>-50302.32346100509</v>
+        <v>-50302.32346100501</v>
       </c>
       <c r="P6" t="n">
-        <v>-55660.49494749775</v>
+        <v>-55660.49494749789</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203975</v>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="K2" t="n">
-        <v>15.4911809250777</v>
+        <v>15.49118092507785</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961973</v>
+        <v>8.793466566961868</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507774</v>
+        <v>15.4911809250779</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="P2" t="n">
-        <v>15.4911809250777</v>
+        <v>15.49118092507785</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>139.1463142409815</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>326.7277128755782</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.30137139662445</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>156.7474389759573</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.8193799491154</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>148.7156928628961</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>10.20984340840145</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>65.92599321748332</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-4.816298607236514e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28269,10 +28269,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.880510727564494e-12</v>
       </c>
       <c r="K13" t="n">
-        <v>-3.602374949868444e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961998</v>
+        <v>8.793466566961886</v>
       </c>
     </row>
     <row r="29">
@@ -29515,19 +29515,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31610,7 +31610,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286967</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>491.5977325265315</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>167.4835451665585</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>184.4971006716333</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,16 +32789,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33907,7 +33907,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,13 +34384,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629573</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096315</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191315</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,13 +35732,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066783</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>25.34951124454015</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>57.65947400496658</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991535</v>
+        <v>89.83994982991524</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765969</v>
+        <v>273.1260549765968</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860934</v>
+        <v>403.1354808860933</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680071</v>
+        <v>435.065893568007</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568695</v>
+        <v>430.4195995568693</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730075</v>
+        <v>382.0553662730073</v>
       </c>
       <c r="P28" t="n">
-        <v>304.425239873587</v>
+        <v>304.4252398735869</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668604</v>
+        <v>129.1957238668602</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -38032,13 +38032,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
